--- a/Code/Results/Cases/Case_5_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15856670363488</v>
+        <v>17.04324350258874</v>
       </c>
       <c r="C2">
-        <v>6.254126905453155</v>
+        <v>5.59824321883092</v>
       </c>
       <c r="D2">
-        <v>11.83131029781382</v>
+        <v>11.64155665218443</v>
       </c>
       <c r="E2">
-        <v>7.59080635248189</v>
+        <v>11.26414711091088</v>
       </c>
       <c r="F2">
-        <v>66.32197170109733</v>
+        <v>57.93622936338926</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.746902975150094</v>
+        <v>13.41342992578834</v>
       </c>
       <c r="L2">
-        <v>6.270665965477091</v>
+        <v>10.2068438843021</v>
       </c>
       <c r="M2">
-        <v>10.14107889014979</v>
+        <v>16.55792841314695</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51976548226902</v>
+        <v>17.02031697725706</v>
       </c>
       <c r="C3">
-        <v>6.008941087675749</v>
+        <v>5.506379353199279</v>
       </c>
       <c r="D3">
-        <v>11.43691004667539</v>
+        <v>11.5026526335238</v>
       </c>
       <c r="E3">
-        <v>7.506438386634332</v>
+        <v>11.25634870994391</v>
       </c>
       <c r="F3">
-        <v>63.07109093813297</v>
+        <v>56.83751660945542</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.057282929238982</v>
+        <v>13.4276402657267</v>
       </c>
       <c r="L3">
-        <v>6.209615944508285</v>
+        <v>10.2198928432413</v>
       </c>
       <c r="M3">
-        <v>9.958881630940219</v>
+        <v>16.59012411845326</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.12790492245155</v>
+        <v>17.01247937329834</v>
       </c>
       <c r="C4">
-        <v>5.855222690993724</v>
+        <v>5.447486261030889</v>
       </c>
       <c r="D4">
-        <v>11.19022909669149</v>
+        <v>11.41534165416855</v>
       </c>
       <c r="E4">
-        <v>7.456183800107858</v>
+        <v>11.25220294936779</v>
       </c>
       <c r="F4">
-        <v>61.02114351634691</v>
+        <v>56.15357939601257</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.794621578259967</v>
+        <v>13.44154486887152</v>
       </c>
       <c r="L4">
-        <v>6.175288905538082</v>
+        <v>10.22934092039325</v>
       </c>
       <c r="M4">
-        <v>9.854507951018105</v>
+        <v>16.61349014883754</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9685161154418</v>
+        <v>17.01085662783807</v>
       </c>
       <c r="C5">
-        <v>5.791733863406796</v>
+        <v>5.422862620463987</v>
       </c>
       <c r="D5">
-        <v>11.08858629059944</v>
+        <v>11.3792659501928</v>
       </c>
       <c r="E5">
-        <v>7.436082927867535</v>
+        <v>11.25067545713132</v>
       </c>
       <c r="F5">
-        <v>60.17270788199237</v>
+        <v>55.87278340861366</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.688696046376966</v>
+        <v>13.44850991437787</v>
       </c>
       <c r="L5">
-        <v>6.162077733921716</v>
+        <v>10.23355223626528</v>
       </c>
       <c r="M5">
-        <v>9.813842996992573</v>
+        <v>16.62391557373401</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.9420744171622</v>
+        <v>17.01068209526773</v>
       </c>
       <c r="C6">
-        <v>5.781139100453009</v>
+        <v>5.418736228742604</v>
       </c>
       <c r="D6">
-        <v>11.07164174122051</v>
+        <v>11.37324604819221</v>
       </c>
       <c r="E6">
-        <v>7.432767737201325</v>
+        <v>11.25043160931821</v>
       </c>
       <c r="F6">
-        <v>60.03105379547249</v>
+        <v>55.82603915182026</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.671178693336163</v>
+        <v>13.44974477585297</v>
       </c>
       <c r="L6">
-        <v>6.159930491808069</v>
+        <v>10.23427333545721</v>
       </c>
       <c r="M6">
-        <v>9.807202913322527</v>
+        <v>16.62570124558379</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.12575384575478</v>
+        <v>17.01245112535939</v>
       </c>
       <c r="C7">
-        <v>5.854369949654292</v>
+        <v>5.447156703327107</v>
       </c>
       <c r="D7">
-        <v>11.18886280382301</v>
+        <v>11.41485711454424</v>
       </c>
       <c r="E7">
-        <v>7.45591119487509</v>
+        <v>11.2521816928931</v>
       </c>
       <c r="F7">
-        <v>61.00975336631005</v>
+        <v>56.14980058278266</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.793188334618677</v>
+        <v>13.44163354862225</v>
       </c>
       <c r="L7">
-        <v>6.175107609547014</v>
+        <v>10.22939625335341</v>
       </c>
       <c r="M7">
-        <v>9.853951988697753</v>
+        <v>16.61362709284712</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9383434744491</v>
+        <v>17.03404530072985</v>
       </c>
       <c r="C8">
-        <v>6.170213511566112</v>
+        <v>5.567085822274444</v>
       </c>
       <c r="D8">
-        <v>11.69626608780654</v>
+        <v>11.59409021939322</v>
       </c>
       <c r="E8">
-        <v>7.561388183129454</v>
+        <v>11.26132510850138</v>
       </c>
       <c r="F8">
-        <v>65.21249907522929</v>
+        <v>57.55948079948081</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.501698640116519</v>
+        <v>13.41725279355024</v>
       </c>
       <c r="L8">
-        <v>6.248950376419204</v>
+        <v>10.21104518034357</v>
       </c>
       <c r="M8">
-        <v>10.07669171665156</v>
+        <v>16.56828217153416</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.52781907045016</v>
+        <v>17.12572081233704</v>
       </c>
       <c r="C9">
-        <v>6.76703750554065</v>
+        <v>5.782472406115036</v>
       </c>
       <c r="D9">
-        <v>12.6552649276642</v>
+        <v>11.92895759623427</v>
       </c>
       <c r="E9">
-        <v>7.781069166923796</v>
+        <v>11.28433671937148</v>
       </c>
       <c r="F9">
-        <v>73.01296099080231</v>
+        <v>60.23896799485446</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.19768697445394</v>
+        <v>13.41065471049141</v>
       </c>
       <c r="L9">
-        <v>6.419589863072253</v>
+        <v>10.18644900253947</v>
       </c>
       <c r="M9">
-        <v>10.57372369589808</v>
+        <v>16.50795044169869</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.72392363788419</v>
+        <v>17.2227929691092</v>
       </c>
       <c r="C10">
-        <v>7.196135416321549</v>
+        <v>5.928603314562613</v>
       </c>
       <c r="D10">
-        <v>13.33864356738853</v>
+        <v>12.16414639955409</v>
       </c>
       <c r="E10">
-        <v>7.951216805741869</v>
+        <v>11.30431936471266</v>
       </c>
       <c r="F10">
-        <v>78.46809860164453</v>
+        <v>62.14191684388648</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.35570798453494</v>
+        <v>13.43102447109717</v>
       </c>
       <c r="L10">
-        <v>6.561866318253784</v>
+        <v>10.17531611461012</v>
       </c>
       <c r="M10">
-        <v>10.97688173324719</v>
+        <v>16.48110324242439</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35837092028909</v>
+        <v>17.27329414357646</v>
       </c>
       <c r="C11">
-        <v>7.390490869075182</v>
+        <v>5.992446045993822</v>
       </c>
       <c r="D11">
-        <v>13.64539068641216</v>
+        <v>12.26864198823393</v>
       </c>
       <c r="E11">
-        <v>8.030772288029167</v>
+        <v>11.31407264080171</v>
       </c>
       <c r="F11">
-        <v>80.89148923457734</v>
+        <v>62.99062873151681</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.86554286805541</v>
+        <v>13.44576468010342</v>
       </c>
       <c r="L11">
-        <v>6.630551052187231</v>
+        <v>10.17175581775988</v>
       </c>
       <c r="M11">
-        <v>11.16892367073218</v>
+        <v>16.47269150197586</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.59622847921435</v>
+        <v>17.29331749727387</v>
       </c>
       <c r="C12">
-        <v>7.464085006406036</v>
+        <v>6.016242570598912</v>
       </c>
       <c r="D12">
-        <v>13.76101412229317</v>
+        <v>12.30784141913698</v>
       </c>
       <c r="E12">
-        <v>8.061232889040015</v>
+        <v>11.31786073399553</v>
       </c>
       <c r="F12">
-        <v>81.80112456125758</v>
+        <v>63.30936420109349</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.05636805686206</v>
+        <v>13.45213155604451</v>
       </c>
       <c r="L12">
-        <v>6.657157460292808</v>
+        <v>10.17062362114812</v>
       </c>
       <c r="M12">
-        <v>11.24293159633693</v>
+        <v>16.47005291274653</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.5451049380806</v>
+        <v>17.28896531240368</v>
       </c>
       <c r="C13">
-        <v>7.44823330573694</v>
+        <v>6.011134443665338</v>
       </c>
       <c r="D13">
-        <v>13.73613521412025</v>
+        <v>12.29941580214371</v>
       </c>
       <c r="E13">
-        <v>8.054657323834846</v>
+        <v>11.31704069693428</v>
       </c>
       <c r="F13">
-        <v>81.60556964455776</v>
+        <v>63.24084012529841</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.01536653274732</v>
+        <v>13.45072546345438</v>
       </c>
       <c r="L13">
-        <v>6.651400264578313</v>
+        <v>10.17085785784877</v>
       </c>
       <c r="M13">
-        <v>11.22693465042179</v>
+        <v>16.47059686324113</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.37798646844416</v>
+        <v>17.27492352342281</v>
       </c>
       <c r="C14">
-        <v>7.396544846554452</v>
+        <v>5.994411406238063</v>
       </c>
       <c r="D14">
-        <v>13.65491341872071</v>
+        <v>12.27187444890683</v>
       </c>
       <c r="E14">
-        <v>8.033271434015909</v>
+        <v>11.31438239442544</v>
       </c>
       <c r="F14">
-        <v>80.96648444964381</v>
+        <v>63.01690565868768</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.88128579481755</v>
+        <v>13.44627276844008</v>
       </c>
       <c r="L14">
-        <v>6.632727842087167</v>
+        <v>10.17165834388433</v>
       </c>
       <c r="M14">
-        <v>11.17498628412426</v>
+        <v>16.47246346587103</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.2753155357709</v>
+        <v>17.26643928752909</v>
       </c>
       <c r="C15">
-        <v>7.364887439467843</v>
+        <v>5.984118644509532</v>
       </c>
       <c r="D15">
-        <v>13.60509509265126</v>
+        <v>12.25495593059492</v>
       </c>
       <c r="E15">
-        <v>8.020216358091107</v>
+        <v>11.31276642645494</v>
       </c>
       <c r="F15">
-        <v>80.57398999612037</v>
+        <v>62.87938759925649</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.79887234341883</v>
+        <v>13.44364752440356</v>
       </c>
       <c r="L15">
-        <v>6.621369067939678</v>
+        <v>10.17217678642295</v>
       </c>
       <c r="M15">
-        <v>11.14333536066919</v>
+        <v>16.47367801780897</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.68211592716358</v>
+        <v>17.21961920555283</v>
       </c>
       <c r="C16">
-        <v>7.183426468477153</v>
+        <v>5.924377994781041</v>
       </c>
       <c r="D16">
-        <v>13.31851846200899</v>
+        <v>12.15726614155825</v>
       </c>
       <c r="E16">
-        <v>7.946063045044436</v>
+        <v>11.30369525667132</v>
       </c>
       <c r="F16">
-        <v>78.30857708924724</v>
+        <v>62.08609170894217</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.3220644373923</v>
+        <v>13.43017116185267</v>
       </c>
       <c r="L16">
-        <v>6.557459577377419</v>
+        <v>10.17557903236911</v>
       </c>
       <c r="M16">
-        <v>10.96450864346353</v>
+        <v>16.48172947707366</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.35136644742375</v>
+        <v>17.19251279670343</v>
       </c>
       <c r="C17">
-        <v>7.071967839815918</v>
+        <v>5.887054111484361</v>
       </c>
       <c r="D17">
-        <v>13.14169202265424</v>
+        <v>12.09668923011395</v>
       </c>
       <c r="E17">
-        <v>7.90114051807527</v>
+        <v>11.2982997951807</v>
       </c>
       <c r="F17">
-        <v>76.90409465835495</v>
+        <v>61.59493157174791</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.02535044819656</v>
+        <v>13.42330473408444</v>
       </c>
       <c r="L17">
-        <v>6.519286176045074</v>
+        <v>10.17805125801337</v>
       </c>
       <c r="M17">
-        <v>10.85704462150175</v>
+        <v>16.4876425413478</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17778180662548</v>
+        <v>17.17751975015468</v>
       </c>
       <c r="C18">
-        <v>7.007772380431282</v>
+        <v>5.865338606280474</v>
       </c>
       <c r="D18">
-        <v>13.03959328626738</v>
+        <v>12.06161305155874</v>
       </c>
       <c r="E18">
-        <v>7.875503329172266</v>
+        <v>11.29525891880168</v>
       </c>
       <c r="F18">
-        <v>76.09076907981506</v>
+        <v>61.31084604886988</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.85307925920283</v>
+        <v>13.41987077039077</v>
       </c>
       <c r="L18">
-        <v>6.497700975101843</v>
+        <v>10.17961481094863</v>
       </c>
       <c r="M18">
-        <v>10.7960444760639</v>
+        <v>16.49140137106505</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11897378604368</v>
+        <v>17.17254639251608</v>
       </c>
       <c r="C19">
-        <v>6.986018608635096</v>
+        <v>5.857943575222732</v>
       </c>
       <c r="D19">
-        <v>13.00495546357845</v>
+        <v>12.04969706201321</v>
       </c>
       <c r="E19">
-        <v>7.866856863657465</v>
+        <v>11.29424007413719</v>
       </c>
       <c r="F19">
-        <v>75.81443851682566</v>
+        <v>61.21439444614592</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.79446912093066</v>
+        <v>13.41879665836613</v>
       </c>
       <c r="L19">
-        <v>6.490455574388284</v>
+        <v>10.18016852960079</v>
       </c>
       <c r="M19">
-        <v>10.77552894497085</v>
+        <v>16.49273548884596</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.38347636412548</v>
+        <v>17.19533653039916</v>
       </c>
       <c r="C20">
-        <v>7.083841055623087</v>
+        <v>5.891052954026034</v>
       </c>
       <c r="D20">
-        <v>13.16055579447741</v>
+        <v>12.10316204801346</v>
       </c>
       <c r="E20">
-        <v>7.905901622874843</v>
+        <v>11.29886769215235</v>
       </c>
       <c r="F20">
-        <v>77.05417210198901</v>
+        <v>61.64738186772283</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.05710132915356</v>
+        <v>13.42398234417829</v>
       </c>
       <c r="L20">
-        <v>6.5233112051075</v>
+        <v>10.17777343278359</v>
       </c>
       <c r="M20">
-        <v>10.86840021543767</v>
+        <v>16.48697605377444</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42713663373725</v>
+        <v>17.2790236278719</v>
       </c>
       <c r="C21">
-        <v>7.411726083320431</v>
+        <v>5.999333667492725</v>
       </c>
       <c r="D21">
-        <v>13.67878419246557</v>
+        <v>12.27997417072181</v>
       </c>
       <c r="E21">
-        <v>8.03954368454294</v>
+        <v>11.31516063617305</v>
       </c>
       <c r="F21">
-        <v>81.15441444563849</v>
+        <v>63.0827543081442</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.92072758564398</v>
+        <v>13.44755934803393</v>
       </c>
       <c r="L21">
-        <v>6.63819594546</v>
+        <v>10.17141736176449</v>
       </c>
       <c r="M21">
-        <v>11.19020947333662</v>
+        <v>16.47190036066097</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.11521261896151</v>
+        <v>17.33895495605296</v>
       </c>
       <c r="C22">
-        <v>7.626062659771852</v>
+        <v>6.067890129010989</v>
       </c>
       <c r="D22">
-        <v>14.01439871204988</v>
+        <v>12.39336452217614</v>
       </c>
       <c r="E22">
-        <v>8.128852224680431</v>
+        <v>11.32636091869166</v>
       </c>
       <c r="F22">
-        <v>83.78749761581659</v>
+        <v>64.00529653413358</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.47222278648034</v>
+        <v>13.46754258186486</v>
       </c>
       <c r="L22">
-        <v>6.716775347590658</v>
+        <v>10.16852220789094</v>
       </c>
       <c r="M22">
-        <v>11.40805539997296</v>
+        <v>16.46523432773525</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.74917364793088</v>
+        <v>17.30649381559622</v>
       </c>
       <c r="C23">
-        <v>7.511619361051805</v>
+        <v>6.031502774657141</v>
       </c>
       <c r="D23">
-        <v>13.83553229723068</v>
+        <v>12.3330481516595</v>
       </c>
       <c r="E23">
-        <v>8.080997251603996</v>
+        <v>11.32033282975741</v>
       </c>
       <c r="F23">
-        <v>82.38629563572503</v>
+        <v>63.51440988542013</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.17899016761335</v>
+        <v>13.45645957347572</v>
       </c>
       <c r="L23">
-        <v>6.674506059791659</v>
+        <v>10.16995232248023</v>
       </c>
       <c r="M23">
-        <v>11.29108054334254</v>
+        <v>16.46850053422873</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.36896035078231</v>
+        <v>17.19405807921835</v>
       </c>
       <c r="C24">
-        <v>7.078473545946321</v>
+        <v>5.889245879401487</v>
       </c>
       <c r="D24">
-        <v>13.15202885432642</v>
+        <v>12.10023646396074</v>
       </c>
       <c r="E24">
-        <v>7.903748539359333</v>
+        <v>11.29861075575513</v>
       </c>
       <c r="F24">
-        <v>76.98634039510422</v>
+        <v>61.62367440177412</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.04275202328916</v>
+        <v>13.42367439656816</v>
       </c>
       <c r="L24">
-        <v>6.521490366419809</v>
+        <v>10.17789859450033</v>
       </c>
       <c r="M24">
-        <v>10.86326391761864</v>
+        <v>16.48727625353632</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.09904216595256</v>
+        <v>17.09566864287698</v>
       </c>
       <c r="C25">
-        <v>6.607585164490779</v>
+        <v>5.72632924776329</v>
       </c>
       <c r="D25">
-        <v>12.39965777187571</v>
+        <v>11.8402199783667</v>
       </c>
       <c r="E25">
-        <v>7.720177905202869</v>
+        <v>11.27756955653331</v>
       </c>
       <c r="F25">
-        <v>70.95122307018721</v>
+        <v>59.52466198294143</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.7549971359308</v>
+        <v>13.40801379871023</v>
       </c>
       <c r="L25">
-        <v>6.370547176870634</v>
+        <v>10.19188392218123</v>
       </c>
       <c r="M25">
-        <v>10.43269693969929</v>
+        <v>16.52120511107043</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.04324350258874</v>
+        <v>13.15856670363491</v>
       </c>
       <c r="C2">
-        <v>5.59824321883092</v>
+        <v>6.254126905452898</v>
       </c>
       <c r="D2">
-        <v>11.64155665218443</v>
+        <v>11.83131029781377</v>
       </c>
       <c r="E2">
-        <v>11.26414711091088</v>
+        <v>7.590806352481863</v>
       </c>
       <c r="F2">
-        <v>57.93622936338926</v>
+        <v>66.3219717010969</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.41342992578834</v>
+        <v>9.746902975150064</v>
       </c>
       <c r="L2">
-        <v>10.2068438843021</v>
+        <v>6.27066596547719</v>
       </c>
       <c r="M2">
-        <v>16.55792841314695</v>
+        <v>10.14107889014983</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.02031697725706</v>
+        <v>12.51976548226899</v>
       </c>
       <c r="C3">
-        <v>5.506379353199279</v>
+        <v>6.008941087675884</v>
       </c>
       <c r="D3">
-        <v>11.5026526335238</v>
+        <v>11.43691004667554</v>
       </c>
       <c r="E3">
-        <v>11.25634870994391</v>
+        <v>7.50643838663439</v>
       </c>
       <c r="F3">
-        <v>56.83751660945542</v>
+        <v>63.07109093813312</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.4276402657267</v>
+        <v>9.057282929238946</v>
       </c>
       <c r="L3">
-        <v>10.2198928432413</v>
+        <v>6.209615944508286</v>
       </c>
       <c r="M3">
-        <v>16.59012411845326</v>
+        <v>9.95888163094018</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.01247937329834</v>
+        <v>12.12790492245148</v>
       </c>
       <c r="C4">
-        <v>5.447486261030889</v>
+        <v>5.855222690993592</v>
       </c>
       <c r="D4">
-        <v>11.41534165416855</v>
+        <v>11.19022909669163</v>
       </c>
       <c r="E4">
-        <v>11.25220294936779</v>
+        <v>7.456183800107902</v>
       </c>
       <c r="F4">
-        <v>56.15357939601257</v>
+        <v>61.02114351634669</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.44154486887152</v>
+        <v>8.794621578259909</v>
       </c>
       <c r="L4">
-        <v>10.22934092039325</v>
+        <v>6.175288905538119</v>
       </c>
       <c r="M4">
-        <v>16.61349014883754</v>
+        <v>9.854507951018061</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.01085662783807</v>
+        <v>11.96851611544171</v>
       </c>
       <c r="C5">
-        <v>5.422862620463987</v>
+        <v>5.791733863406794</v>
       </c>
       <c r="D5">
-        <v>11.3792659501928</v>
+        <v>11.08858629059926</v>
       </c>
       <c r="E5">
-        <v>11.25067545713132</v>
+        <v>7.436082927867687</v>
       </c>
       <c r="F5">
-        <v>55.87278340861366</v>
+        <v>60.1727078819921</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.44850991437787</v>
+        <v>8.688696046376922</v>
       </c>
       <c r="L5">
-        <v>10.23355223626528</v>
+        <v>6.16207773392181</v>
       </c>
       <c r="M5">
-        <v>16.62391557373401</v>
+        <v>9.813842996992566</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.01068209526773</v>
+        <v>11.94207441716217</v>
       </c>
       <c r="C6">
-        <v>5.418736228742604</v>
+        <v>5.781139100453396</v>
       </c>
       <c r="D6">
-        <v>11.37324604819221</v>
+        <v>11.07164174122058</v>
       </c>
       <c r="E6">
-        <v>11.25043160931821</v>
+        <v>7.432767737201507</v>
       </c>
       <c r="F6">
-        <v>55.82603915182026</v>
+        <v>60.03105379547296</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.44974477585297</v>
+        <v>8.671178693336064</v>
       </c>
       <c r="L6">
-        <v>10.23427333545721</v>
+        <v>6.159930491808094</v>
       </c>
       <c r="M6">
-        <v>16.62570124558379</v>
+        <v>9.807202913322513</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.01245112535939</v>
+        <v>12.12575384575474</v>
       </c>
       <c r="C7">
-        <v>5.447156703327107</v>
+        <v>5.854369949654294</v>
       </c>
       <c r="D7">
-        <v>11.41485711454424</v>
+        <v>11.18886280382296</v>
       </c>
       <c r="E7">
-        <v>11.2521816928931</v>
+        <v>7.455911194874982</v>
       </c>
       <c r="F7">
-        <v>56.14980058278266</v>
+        <v>61.00975336630985</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.44163354862225</v>
+        <v>8.793188334618666</v>
       </c>
       <c r="L7">
-        <v>10.22939625335341</v>
+        <v>6.175107609546893</v>
       </c>
       <c r="M7">
-        <v>16.61362709284712</v>
+        <v>9.853951988697673</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.03404530072985</v>
+        <v>12.9383434744491</v>
       </c>
       <c r="C8">
-        <v>5.567085822274444</v>
+        <v>6.170213511565988</v>
       </c>
       <c r="D8">
-        <v>11.59409021939322</v>
+        <v>11.69626608780655</v>
       </c>
       <c r="E8">
-        <v>11.26132510850138</v>
+        <v>7.561388183129447</v>
       </c>
       <c r="F8">
-        <v>57.55948079948081</v>
+        <v>65.21249907522918</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.41725279355024</v>
+        <v>9.501698640116446</v>
       </c>
       <c r="L8">
-        <v>10.21104518034357</v>
+        <v>6.24895037641927</v>
       </c>
       <c r="M8">
-        <v>16.56828217153416</v>
+        <v>10.07669171665163</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.12572081233704</v>
+        <v>14.5278190704502</v>
       </c>
       <c r="C9">
-        <v>5.782472406115036</v>
+        <v>6.767037505540541</v>
       </c>
       <c r="D9">
-        <v>11.92895759623427</v>
+        <v>12.655264927664</v>
       </c>
       <c r="E9">
-        <v>11.28433671937148</v>
+        <v>7.781069166923722</v>
       </c>
       <c r="F9">
-        <v>60.23896799485446</v>
+        <v>73.01296099080132</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.41065471049141</v>
+        <v>11.19768697445377</v>
       </c>
       <c r="L9">
-        <v>10.18644900253947</v>
+        <v>6.419589863072206</v>
       </c>
       <c r="M9">
-        <v>16.50795044169869</v>
+        <v>10.57372369589818</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.2227929691092</v>
+        <v>15.72392363788413</v>
       </c>
       <c r="C10">
-        <v>5.928603314562613</v>
+        <v>7.196135416321023</v>
       </c>
       <c r="D10">
-        <v>12.16414639955409</v>
+        <v>13.33864356738857</v>
       </c>
       <c r="E10">
-        <v>11.30431936471266</v>
+        <v>7.951216805741841</v>
       </c>
       <c r="F10">
-        <v>62.14191684388648</v>
+        <v>78.46809860164424</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.43102447109717</v>
+        <v>12.35570798453481</v>
       </c>
       <c r="L10">
-        <v>10.17531611461012</v>
+        <v>6.561866318253859</v>
       </c>
       <c r="M10">
-        <v>16.48110324242439</v>
+        <v>10.97688173324725</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27329414357646</v>
+        <v>16.35837092028916</v>
       </c>
       <c r="C11">
-        <v>5.992446045993822</v>
+        <v>7.390490869074795</v>
       </c>
       <c r="D11">
-        <v>12.26864198823393</v>
+        <v>13.6453906864122</v>
       </c>
       <c r="E11">
-        <v>11.31407264080171</v>
+        <v>8.030772288029091</v>
       </c>
       <c r="F11">
-        <v>62.99062873151681</v>
+        <v>80.89148923457702</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.44576468010342</v>
+        <v>12.86554286805543</v>
       </c>
       <c r="L11">
-        <v>10.17175581775988</v>
+        <v>6.630551052187253</v>
       </c>
       <c r="M11">
-        <v>16.47269150197586</v>
+        <v>11.16892367073216</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29331749727387</v>
+        <v>16.59622847921427</v>
       </c>
       <c r="C12">
-        <v>6.016242570598912</v>
+        <v>7.464085006406168</v>
       </c>
       <c r="D12">
-        <v>12.30784141913698</v>
+        <v>13.76101412229319</v>
       </c>
       <c r="E12">
-        <v>11.31786073399553</v>
+        <v>8.061232889040031</v>
       </c>
       <c r="F12">
-        <v>63.30936420109349</v>
+        <v>81.80112456125703</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.45213155604451</v>
+        <v>13.05636805686201</v>
       </c>
       <c r="L12">
-        <v>10.17062362114812</v>
+        <v>6.657157460292808</v>
       </c>
       <c r="M12">
-        <v>16.47005291274653</v>
+        <v>11.24293159633694</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28896531240368</v>
+        <v>16.54510493808058</v>
       </c>
       <c r="C13">
-        <v>6.011134443665338</v>
+        <v>7.448233305736547</v>
       </c>
       <c r="D13">
-        <v>12.29941580214371</v>
+        <v>13.73613521412045</v>
       </c>
       <c r="E13">
-        <v>11.31704069693428</v>
+        <v>8.054657323835004</v>
       </c>
       <c r="F13">
-        <v>63.24084012529841</v>
+        <v>81.60556964455763</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.45072546345438</v>
+        <v>13.01536653274724</v>
       </c>
       <c r="L13">
-        <v>10.17085785784877</v>
+        <v>6.651400264578424</v>
       </c>
       <c r="M13">
-        <v>16.47059686324113</v>
+        <v>11.22693465042186</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.27492352342281</v>
+        <v>16.37798646844421</v>
       </c>
       <c r="C14">
-        <v>5.994411406238063</v>
+        <v>7.396544846554585</v>
       </c>
       <c r="D14">
-        <v>12.27187444890683</v>
+        <v>13.65491341872078</v>
       </c>
       <c r="E14">
-        <v>11.31438239442544</v>
+        <v>8.033271434015923</v>
       </c>
       <c r="F14">
-        <v>63.01690565868768</v>
+        <v>80.9664844496443</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.44627276844008</v>
+        <v>12.88128579481766</v>
       </c>
       <c r="L14">
-        <v>10.17165834388433</v>
+        <v>6.632727842087107</v>
       </c>
       <c r="M14">
-        <v>16.47246346587103</v>
+        <v>11.17498628412422</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.26643928752909</v>
+        <v>16.27531553577095</v>
       </c>
       <c r="C15">
-        <v>5.984118644509532</v>
+        <v>7.364887439468104</v>
       </c>
       <c r="D15">
-        <v>12.25495593059492</v>
+        <v>13.60509509265134</v>
       </c>
       <c r="E15">
-        <v>11.31276642645494</v>
+        <v>8.020216358091279</v>
       </c>
       <c r="F15">
-        <v>62.87938759925649</v>
+        <v>80.57398999612099</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.44364752440356</v>
+        <v>12.79887234341893</v>
       </c>
       <c r="L15">
-        <v>10.17217678642295</v>
+        <v>6.621369067939709</v>
       </c>
       <c r="M15">
-        <v>16.47367801780897</v>
+        <v>11.14333536066916</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.21961920555283</v>
+        <v>15.68211592716366</v>
       </c>
       <c r="C16">
-        <v>5.924377994781041</v>
+        <v>7.183426468477265</v>
       </c>
       <c r="D16">
-        <v>12.15726614155825</v>
+        <v>13.31851846200908</v>
       </c>
       <c r="E16">
-        <v>11.30369525667132</v>
+        <v>7.946063045044516</v>
       </c>
       <c r="F16">
-        <v>62.08609170894217</v>
+        <v>78.30857708924758</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.43017116185267</v>
+        <v>12.32206443739238</v>
       </c>
       <c r="L16">
-        <v>10.17557903236911</v>
+        <v>6.557459577377394</v>
       </c>
       <c r="M16">
-        <v>16.48172947707366</v>
+        <v>10.96450864346353</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.19251279670343</v>
+        <v>15.35136644742373</v>
       </c>
       <c r="C17">
-        <v>5.887054111484361</v>
+        <v>7.07196783981618</v>
       </c>
       <c r="D17">
-        <v>12.09668923011395</v>
+        <v>13.14169202265419</v>
       </c>
       <c r="E17">
-        <v>11.2982997951807</v>
+        <v>7.901140518075263</v>
       </c>
       <c r="F17">
-        <v>61.59493157174791</v>
+        <v>76.90409465835486</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.42330473408444</v>
+        <v>12.02535044819661</v>
       </c>
       <c r="L17">
-        <v>10.17805125801337</v>
+        <v>6.519286176045084</v>
       </c>
       <c r="M17">
-        <v>16.4876425413478</v>
+        <v>10.85704462150171</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.17751975015468</v>
+        <v>15.17778180662546</v>
       </c>
       <c r="C18">
-        <v>5.865338606280474</v>
+        <v>7.007772380431278</v>
       </c>
       <c r="D18">
-        <v>12.06161305155874</v>
+        <v>13.03959328626747</v>
       </c>
       <c r="E18">
-        <v>11.29525891880168</v>
+        <v>7.875503329172255</v>
       </c>
       <c r="F18">
-        <v>61.31084604886988</v>
+        <v>76.0907690798154</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.41987077039077</v>
+        <v>11.85307925920289</v>
       </c>
       <c r="L18">
-        <v>10.17961481094863</v>
+        <v>6.497700975101847</v>
       </c>
       <c r="M18">
-        <v>16.49140137106505</v>
+        <v>10.79604447606387</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.17254639251608</v>
+        <v>15.11897378604371</v>
       </c>
       <c r="C19">
-        <v>5.857943575222732</v>
+        <v>6.986018608635225</v>
       </c>
       <c r="D19">
-        <v>12.04969706201321</v>
+        <v>13.00495546357847</v>
       </c>
       <c r="E19">
-        <v>11.29424007413719</v>
+        <v>7.86685686365749</v>
       </c>
       <c r="F19">
-        <v>61.21439444614592</v>
+        <v>75.8144385168257</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.41879665836613</v>
+        <v>11.79446912093071</v>
       </c>
       <c r="L19">
-        <v>10.18016852960079</v>
+        <v>6.490455574388272</v>
       </c>
       <c r="M19">
-        <v>16.49273548884596</v>
+        <v>10.77552894497085</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.19533653039916</v>
+        <v>15.38347636412549</v>
       </c>
       <c r="C20">
-        <v>5.891052954026034</v>
+        <v>7.083841055622818</v>
       </c>
       <c r="D20">
-        <v>12.10316204801346</v>
+        <v>13.16055579447736</v>
       </c>
       <c r="E20">
-        <v>11.29886769215235</v>
+        <v>7.905901622874786</v>
       </c>
       <c r="F20">
-        <v>61.64738186772283</v>
+        <v>77.05417210198887</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.42398234417829</v>
+        <v>12.05710132915346</v>
       </c>
       <c r="L20">
-        <v>10.17777343278359</v>
+        <v>6.523311205107528</v>
       </c>
       <c r="M20">
-        <v>16.48697605377444</v>
+        <v>10.86840021543769</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.2790236278719</v>
+        <v>16.4271366337372</v>
       </c>
       <c r="C21">
-        <v>5.999333667492725</v>
+        <v>7.41172608332084</v>
       </c>
       <c r="D21">
-        <v>12.27997417072181</v>
+        <v>13.67878419246551</v>
       </c>
       <c r="E21">
-        <v>11.31516063617305</v>
+        <v>8.039543684542833</v>
       </c>
       <c r="F21">
-        <v>63.0827543081442</v>
+        <v>81.15441444563798</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.44755934803393</v>
+        <v>12.92072758564395</v>
       </c>
       <c r="L21">
-        <v>10.17141736176449</v>
+        <v>6.638195945459917</v>
       </c>
       <c r="M21">
-        <v>16.47190036066097</v>
+        <v>11.19020947333662</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33895495605296</v>
+        <v>17.11521261896134</v>
       </c>
       <c r="C22">
-        <v>6.067890129010989</v>
+        <v>7.626062659771991</v>
       </c>
       <c r="D22">
-        <v>12.39336452217614</v>
+        <v>14.01439871204976</v>
       </c>
       <c r="E22">
-        <v>11.32636091869166</v>
+        <v>8.128852224680401</v>
       </c>
       <c r="F22">
-        <v>64.00529653413358</v>
+        <v>83.78749761581624</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.46754258186486</v>
+        <v>13.47222278648018</v>
       </c>
       <c r="L22">
-        <v>10.16852220789094</v>
+        <v>6.716775347590649</v>
       </c>
       <c r="M22">
-        <v>16.46523432773525</v>
+        <v>11.40805539997297</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.30649381559622</v>
+        <v>16.7491736479308</v>
       </c>
       <c r="C23">
-        <v>6.031502774657141</v>
+        <v>7.511619361051941</v>
       </c>
       <c r="D23">
-        <v>12.3330481516595</v>
+        <v>13.83553229723065</v>
       </c>
       <c r="E23">
-        <v>11.32033282975741</v>
+        <v>8.08099725160403</v>
       </c>
       <c r="F23">
-        <v>63.51440988542013</v>
+        <v>82.38629563572523</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.45645957347572</v>
+        <v>13.1789901676133</v>
       </c>
       <c r="L23">
-        <v>10.16995232248023</v>
+        <v>6.674506059791657</v>
       </c>
       <c r="M23">
-        <v>16.46850053422873</v>
+        <v>11.29108054334258</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.19405807921835</v>
+        <v>15.36896035078229</v>
       </c>
       <c r="C24">
-        <v>5.889245879401487</v>
+        <v>7.078473545946318</v>
       </c>
       <c r="D24">
-        <v>12.10023646396074</v>
+        <v>13.15202885432643</v>
       </c>
       <c r="E24">
-        <v>11.29861075575513</v>
+        <v>7.903748539359345</v>
       </c>
       <c r="F24">
-        <v>61.62367440177412</v>
+        <v>76.98634039510404</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.42367439656816</v>
+        <v>12.04275202328908</v>
       </c>
       <c r="L24">
-        <v>10.17789859450033</v>
+        <v>6.521490366419827</v>
       </c>
       <c r="M24">
-        <v>16.48727625353632</v>
+        <v>10.86326391761865</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.09566864287698</v>
+        <v>14.09904216595253</v>
       </c>
       <c r="C25">
-        <v>5.72632924776329</v>
+        <v>6.6075851644909</v>
       </c>
       <c r="D25">
-        <v>11.8402199783667</v>
+        <v>12.39965777187573</v>
       </c>
       <c r="E25">
-        <v>11.27756955653331</v>
+        <v>7.720177905202892</v>
       </c>
       <c r="F25">
-        <v>59.52466198294143</v>
+        <v>70.95122307018761</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.40801379871023</v>
+        <v>10.75499713593086</v>
       </c>
       <c r="L25">
-        <v>10.19188392218123</v>
+        <v>6.370547176870568</v>
       </c>
       <c r="M25">
-        <v>16.52120511107043</v>
+        <v>10.43269693969921</v>
       </c>
       <c r="N25">
         <v>0</v>
